--- a/Assets/Editor/JsonUtility/JsonUtility/Stage2/2-2.xlsx
+++ b/Assets/Editor/JsonUtility/JsonUtility/Stage2/2-2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/uisoo/Documents/GitHub/Project-Caterpillar/Assets/Editor/JsonUtility/JsonUtility/Stage2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UISU\Documents\GitHub\Project_Caterpillar\Assets\Editor\JsonUtility\JsonUtility\Stage2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F4AD497-10B4-E345-947A-A21ED2215E1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{641C0770-05C9-4011-914C-3A8A1EAD9876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15640" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="!Sample" sheetId="1" r:id="rId1"/>
@@ -2505,7 +2505,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="99">
   <si>
     <t>파일명</t>
   </si>
@@ -2581,10 +2581,6 @@
   </si>
   <si>
     <t>비만</t>
-  </si>
-  <si>
-    <t>Hold, -1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>(스테이지 필드) : 스토리 필드(밤) &gt; 스토리 필드(낮)으로 변경. (페이드인)</t>
@@ -3136,9 +3132,6 @@
     <t>(스토리 필드(낮) 유지)</t>
   </si>
   <si>
-    <t>(스토리 필드(밤) 이동)</t>
-  </si>
-  <si>
     <t>2-2, 개척자-1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -3171,11 +3164,90 @@
     </r>
   </si>
   <si>
-    <t>Hold, 0.1</t>
+    <t>FadeIn</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;b&gt;나랑 대화하고 싶어 지면 아침에 나를 찾아와.&lt;b/&gt;</t>
+    <r>
+      <t>Hold, -1, name=Stage 2/2-2/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="굴림"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>딸랑 이발소 문 열림</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Hold, 0.1, name=Stage 2/2-2/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>쿠키풀 클로즈업</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Hold, 0.1, name=Stage 2/2-2/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>쿠키풀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사라짐</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FadeOut</t>
+  </si>
+  <si>
+    <t>FadeOut</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;나랑 대화하고 싶어 지면 아침에 나를 찾아와.&lt;/b&gt;</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -3191,7 +3263,7 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>낮이 밤이 되고 밤이 낮이 되는&lt;b/&gt;</t>
+      <t>낮이 밤이 되고 밤이 낮이 되는&lt;/b&gt;</t>
     </r>
     <r>
       <rPr>
@@ -3214,12 +3286,19 @@
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>비만</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
+  </numFmts>
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3301,6 +3380,27 @@
       <name val="Batang"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="굴림"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3322,7 +3422,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3350,7 +3450,13 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3575,9 +3681,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="26" width="8.83203125" customWidth="1"/>
+    <col min="1" max="26" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" customHeight="1">
@@ -4654,23 +4760,23 @@
   <dimension ref="A1:Z989"/>
   <sheetViews>
     <sheetView zoomScale="112" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="26" width="8.83203125" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="26" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="17">
+    <row r="1" spans="1:16" ht="16.5">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P1" s="2"/>
     </row>
@@ -4737,10 +4843,13 @@
     <row r="5" spans="1:16">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>11</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -4759,7 +4868,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -4770,7 +4879,7 @@
         <v>20</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -5888,23 +5997,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P985"/>
   <sheetViews>
-    <sheetView zoomScale="140" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="A6" zoomScale="140" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.83203125" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" customWidth="1"/>
     <col min="2" max="2" width="89" customWidth="1"/>
     <col min="3" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="21.5" customWidth="1"/>
-    <col min="6" max="6" width="9.5" customWidth="1"/>
-    <col min="7" max="26" width="8.83203125" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" customWidth="1"/>
+    <col min="7" max="26" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="16.5" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P1" s="2"/>
     </row>
@@ -5970,10 +6079,10 @@
     </row>
     <row r="5" spans="1:16" ht="16.5" customHeight="1">
       <c r="A5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="C5" s="4">
         <v>1</v>
@@ -5998,10 +6107,10 @@
     </row>
     <row r="7" spans="1:16" ht="16.5" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7" s="4">
         <v>1</v>
@@ -6026,10 +6135,10 @@
     </row>
     <row r="9" spans="1:16" ht="16.5" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9" s="4">
         <v>1</v>
@@ -6054,10 +6163,10 @@
     </row>
     <row r="11" spans="1:16" ht="16.5" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="4">
         <v>1</v>
@@ -6068,10 +6177,10 @@
     </row>
     <row r="12" spans="1:16" ht="16.5" customHeight="1">
       <c r="A12" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12" s="4">
         <v>1</v>
@@ -6085,7 +6194,7 @@
         <v>20</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C13" s="4">
         <v>1</v>
@@ -6096,10 +6205,10 @@
     </row>
     <row r="14" spans="1:16" ht="16.5" customHeight="1">
       <c r="A14" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C14" s="4">
         <v>1</v>
@@ -6110,10 +6219,10 @@
     </row>
     <row r="15" spans="1:16" ht="16.5" customHeight="1">
       <c r="A15" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C15" s="4">
         <v>1</v>
@@ -6138,10 +6247,10 @@
     </row>
     <row r="17" spans="1:6" ht="16.5" customHeight="1">
       <c r="A17" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C17" s="4">
         <v>1</v>
@@ -6155,7 +6264,7 @@
         <v>20</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C18" s="4">
         <v>1</v>
@@ -6166,10 +6275,10 @@
     </row>
     <row r="19" spans="1:6" ht="16.5" customHeight="1">
       <c r="A19" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C19" s="4">
         <v>1</v>
@@ -6180,10 +6289,10 @@
     </row>
     <row r="20" spans="1:6" ht="16.5" customHeight="1">
       <c r="A20" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C20" s="4">
         <v>1</v>
@@ -6194,10 +6303,10 @@
     </row>
     <row r="21" spans="1:6" ht="16.5" customHeight="1">
       <c r="A21" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C21" s="4">
         <v>1</v>
@@ -6211,7 +6320,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C22" s="4">
         <v>1</v>
@@ -6222,10 +6331,10 @@
     </row>
     <row r="23" spans="1:6" ht="16.5" customHeight="1">
       <c r="A23" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C23" s="4">
         <v>1</v>
@@ -6250,10 +6359,10 @@
     </row>
     <row r="25" spans="1:6" ht="16.5" customHeight="1">
       <c r="A25" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C25" s="4">
         <v>1</v>
@@ -6264,10 +6373,10 @@
     </row>
     <row r="26" spans="1:6" ht="16.5" customHeight="1">
       <c r="A26" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C26" s="4">
         <v>1</v>
@@ -6281,7 +6390,7 @@
         <v>20</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C27" s="4">
         <v>1</v>
@@ -6292,10 +6401,10 @@
     </row>
     <row r="28" spans="1:6" ht="16.5" customHeight="1">
       <c r="A28" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C28" s="4">
         <v>1</v>
@@ -7328,19 +7437,19 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="7.5" customWidth="1"/>
-    <col min="2" max="2" width="59.1640625" customWidth="1"/>
+    <col min="1" max="1" width="7.42578125" customWidth="1"/>
+    <col min="2" max="2" width="59.140625" customWidth="1"/>
     <col min="3" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="21.5" customWidth="1"/>
-    <col min="6" max="6" width="9.5" customWidth="1"/>
-    <col min="7" max="26" width="8.6640625" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" customWidth="1"/>
+    <col min="7" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16.5" customHeight="1">
@@ -7408,7 +7517,7 @@
         <v>20</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -7418,10 +7527,10 @@
     </row>
     <row r="6" spans="1:6" ht="16.5" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -8442,24 +8551,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F999"/>
   <sheetViews>
-    <sheetView zoomScale="156" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" zoomScale="156" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="7.5" customWidth="1"/>
-    <col min="2" max="2" width="65.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="26" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="7.42578125" customWidth="1"/>
+    <col min="2" max="2" width="65.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -8532,7 +8641,7 @@
         <v>24</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -8557,7 +8666,7 @@
         <v>24</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -8581,7 +8690,7 @@
         <v>24</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
@@ -8592,7 +8701,7 @@
         <v>20</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
@@ -8600,20 +8709,22 @@
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A12" s="9"/>
+      <c r="A12" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="B12" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -8624,7 +8735,7 @@
         <v>24</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -8632,13 +8743,13 @@
     </row>
     <row r="14" spans="1:6" ht="16.5" customHeight="1">
       <c r="B14" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C14">
         <v>6</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>25</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="16.5" customHeight="1">
@@ -8646,7 +8757,7 @@
         <v>24</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -9655,9 +9766,6 @@
     <row r="998" ht="16.5" customHeight="1"/>
     <row r="999" ht="16.5" customHeight="1"/>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A11:A12"/>
-  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -9669,24 +9777,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView zoomScale="166" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:C8"/>
+    <sheetView topLeftCell="A2" zoomScale="166" workbookViewId="0">
+      <selection activeCell="B22" sqref="B21:B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="62.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="26" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18">
+    <row r="1" spans="1:6" ht="16.5">
       <c r="A1" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -9759,7 +9867,7 @@
         <v>24</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -9783,7 +9891,7 @@
         <v>24</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -9795,7 +9903,7 @@
         <v>20</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -10810,25 +10918,25 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{046BEB0F-6EDA-EB4F-85EF-673DA675ACFC}">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="169" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="108.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="108.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="36">
+    <row r="1" spans="1:6" ht="33">
       <c r="A1" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -10901,7 +11009,7 @@
         <v>23</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -10924,7 +11032,7 @@
         <v>23</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -10935,7 +11043,7 @@
         <v>20</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -10946,7 +11054,7 @@
         <v>23</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -10968,7 +11076,7 @@
         <v>23</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -10990,16 +11098,16 @@
         <v>23</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" ht="16.5">
       <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C14">
         <v>6</v>
@@ -11035,7 +11143,7 @@
         <v>20</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -11046,22 +11154,22 @@
         <v>23</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" ht="16.5">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C19">
         <v>6</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -11080,7 +11188,7 @@
         <v>23</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -11102,7 +11210,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -11113,7 +11221,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -11124,7 +11232,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -11135,7 +11243,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -11157,7 +11265,7 @@
         <v>23</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -11168,7 +11276,7 @@
         <v>23</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -11188,7 +11296,7 @@
     <row r="31" spans="1:6">
       <c r="A31" s="4"/>
       <c r="B31" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C31" s="4">
         <v>2</v>
@@ -11199,7 +11307,7 @@
         <v>23</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C32" s="4">
         <v>1</v>
@@ -11207,7 +11315,9 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
+      <c r="B33" s="4" t="s">
+        <v>85</v>
+      </c>
       <c r="C33" s="4">
         <v>11</v>
       </c>
@@ -11217,29 +11327,31 @@
     </row>
     <row r="34" spans="1:6">
       <c r="B34" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C34" s="4">
-        <v>4</v>
+        <v>82</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:6">
+      <c r="A35" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="B35" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C35">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>85</v>
-      </c>
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
       <c r="C36">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -11249,15 +11361,21 @@
         <v>11</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>21</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="B38" s="4" t="s">
-        <v>87</v>
+      <c r="B38" s="10" t="s">
+        <v>93</v>
       </c>
       <c r="C38">
         <v>4</v>
+      </c>
+      <c r="F38" s="9"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="C39">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -11269,25 +11387,25 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ABED63D-DAAC-F543-8570-B2B561D221FD}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView zoomScale="173" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" customWidth="1"/>
-    <col min="2" max="2" width="46.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="46.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18">
+    <row r="1" spans="1:6" ht="33">
       <c r="A1" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -11360,7 +11478,7 @@
         <v>23</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -11372,7 +11490,7 @@
     <row r="6" spans="1:6">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -11383,24 +11501,27 @@
         <v>23</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" ht="16.5">
       <c r="B8" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>11</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="B9" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -11411,7 +11532,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -11428,11 +11549,26 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="B12" s="4" t="s">
-        <v>87</v>
-      </c>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
       <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="B13" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13">
         <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="C14">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
